--- a/doc/log/log_201508030327_zhoutong.xlsx
+++ b/doc/log/log_201508030327_zhoutong.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -165,6 +165,7 @@
         <color rgb="FF000000"/>
         <rFont val="Open Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -174,6 +175,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、学</t>
     </r>
@@ -183,6 +185,7 @@
         <color rgb="FF000000"/>
         <rFont val="Open Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">eclipse</t>
     </r>
@@ -192,6 +195,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的</t>
     </r>
@@ -201,6 +205,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">maven+spring</t>
     </r>
@@ -210,6 +215,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项目构建
 </t>
@@ -258,7 +264,34 @@
     <t xml:space="preserve">1、按着老师上课演示的，修改自己工程</t>
   </si>
   <si>
-    <t xml:space="preserve">准备 安恒杯 网络安全比赛，没能做任务</t>
+    <t xml:space="preserve">参照老师的项目，学习base包的构建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base以完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不理解base的作用，，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按着老师和组长的模块，学习dao的构建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未完成，项目出错</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重新git更新后的程序，更新包解决项目出错问题。但test不过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改修改争取test完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改dao和test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test不报错了，但是没有生成表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解决问题，生成了表</t>
   </si>
   <si>
     <t xml:space="preserve">周次</t>
@@ -271,11 +304,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
+    <numFmt numFmtId="166" formatCode="M\月D\日"/>
+    <numFmt numFmtId="167" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -331,18 +366,26 @@
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="文泉驿微米黑"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -420,7 +463,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,10 +516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +628,7 @@
     </row>
     <row r="7" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>43226</v>
+        <v>43230</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -571,7 +642,7 @@
     </row>
     <row r="8" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>43227</v>
+        <v>43231</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -588,7 +659,7 @@
     </row>
     <row r="9" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>43228</v>
+        <v>43232</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -605,7 +676,7 @@
     </row>
     <row r="10" customFormat="false" ht="53.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>43229</v>
+        <v>43233</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -622,7 +693,7 @@
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>43230</v>
+        <v>43242</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -633,7 +704,7 @@
     </row>
     <row r="12" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>43231</v>
+        <v>43244</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -642,74 +713,119 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>43234</v>
+        <v>43245</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="49.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>43235</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>43236</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="48.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>43237</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="44.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="56.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="50.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="53.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -728,7 +844,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -743,20 +859,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">

--- a/doc/log/log_201508030327_zhoutong.xlsx
+++ b/doc/log/log_201508030327_zhoutong.xlsx
@@ -304,13 +304,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
-    <numFmt numFmtId="166" formatCode="M\月D\日"/>
-    <numFmt numFmtId="167" formatCode="YY\年M\月D\日"/>
+    <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,18 +373,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="文泉驿微米黑"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,11 +454,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,15 +470,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,7 +498,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,7 +724,7 @@
       <c r="A15" s="13" t="n">
         <v>43251</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -759,10 +738,10 @@
       <c r="A16" s="13" t="n">
         <v>43252</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -773,10 +752,10 @@
       <c r="A17" s="13" t="n">
         <v>43253</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -790,7 +769,7 @@
       <c r="A18" s="13" t="n">
         <v>43254</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -804,10 +783,10 @@
       <c r="A19" s="13" t="n">
         <v>43255</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -818,7 +797,7 @@
       <c r="A20" s="13" t="n">
         <v>43256</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -872,7 +851,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
